--- a/Documentation/Wilson Thrust BOM v4 with Grip LEDs.xlsx
+++ b/Documentation/Wilson Thrust BOM v4 with Grip LEDs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d7a43267b7fa0998/Github Repositories/WilsonThrust510/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="581" documentId="13_ncr:1_{4CFC658E-4AEC-40E1-A032-CD259F0AAD17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FE30B9A5-E2C1-4DB0-A1D4-8BEA64D6D0F9}"/>
+  <xr:revisionPtr revIDLastSave="720" documentId="13_ncr:1_{4CFC658E-4AEC-40E1-A032-CD259F0AAD17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA12D566-2108-419B-B4BB-67E8729488AE}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-105" windowWidth="29040" windowHeight="15720" xr2:uid="{C99EEBEB-5120-4843-8B17-4416EAFBA3F3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C99EEBEB-5120-4843-8B17-4416EAFBA3F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Large PCB Parts" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="399">
   <si>
     <t>Amazon</t>
   </si>
@@ -250,9 +250,6 @@
   </si>
   <si>
     <t>THB001P</t>
-  </si>
-  <si>
-    <t>$ Uxcell/Amazon</t>
   </si>
   <si>
     <t>Springs</t>
@@ -601,14 +598,6 @@
   </si>
   <si>
     <t>Used to mount switch pcbs in Main Throttle Grip.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thread Size: M2 
-Thread Pitch: 0.4 mm
-Thread Type: Metric 
-Thread Fit: Class 6g
-Length: 5 mm
-</t>
   </si>
   <si>
     <t xml:space="preserve">Application: Self Adhesive
@@ -2731,78 +2720,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Category: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>M2 x 5mm Cap Screws</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Head Type: Socket
-Socket Head Profile: Standard
-Drive Style: Hex 
-System of Measurement: Metric
-Thread Direction: Right Hand
-</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Countersink Angle: 90°
-Drive Style: JIS
-Drive Size: No. 0
-Thread Type: Metric 
-Thread Spacing: Coarse 
-</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Category: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>M2 x 5mm Tapered Screws</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Thread Pitch: 0.4 mm
-Length: 5 mm
-Threading: Fully Threaded
-Head Diameter: 3 mm
-Head Height: 0.6 mm
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">Thread Fit: Class 4h
 Thread Direction: Right Hand 
 Head Type: Flat
@@ -2829,14 +2746,6 @@
     <t>91263A432</t>
   </si>
   <si>
-    <t xml:space="preserve">Diameter: 5.5mm
-Height: 2mm
-Drive Size: 2 mm
-Thread Type: Metric 
-Thread Fit: Class 6g
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">Flat Head Profile: Standard
 Head Diameter: 6 mm
 Head Diameter Tolerance: -0.3 to 0 mm
@@ -2846,222 +2755,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Head Height: 1.7 mm
-Countersink Angle: 90°
-Drive Style: Hex 
-Drive Size: 2.1 mm
-Thread Type: Metric 
-Thread Spacing: Coarse 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Head Height: 2.8 mm
-Countersink Angle: 90°
-Drive Style: Hex 
-Drive Size: 3 mm
-Thread Type: Metric 
-Thread Spacing: Coarse 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Head Height: 2.5 mm
-Countersink Angle: 90°
-Drive Style: Phillips 
-Drive Size: No. 2
-Thread Type: Metric 
-Thread Spacing: Coarse 
-</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Category: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>M5 x 20mm Tapered Screws</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Thread Size: M5 
-Thread Pitch: 0.8 mm
-Length: 20 mm
-Threading: Fully Threaded
-Head Diameter: 9.2 mm
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Thread Fit: Class 6h
-Thread Direction: Right Hand 
-Head Type: Flat
-Flat Head Profile: Standard
-Lot: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>100 pcs</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Thread Fit: Class 6g
-Thread Direction: Right Hand
-Head Type: Flat
-Flat Head Profile: Standard
-Lot: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>100 pcs</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Category: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>M5 x 12mm Tapered Screws</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Thread Size: M5 
-Thread Pitch: 0.8 mm
-Length: 12 mm
-Threading: Fully Threaded
-Head Diameter: 10 mm
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Category: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>M3 x 16mm Tapered Screws</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Thread Size: M3 
-Thread Pitch: 0.5 mm
-Length: 16 mm
-Threading: Fully Threaded
-Head Diameter: 6 mm
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Thread Fit: Class 4g6g
-Thread Direction: Right Hand 
-Head Type: Flat
-Flat Head Profile: Standard
-Lot: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>50 pcs</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Thread Type: Metric 
 Thread Spacing: Coarse 
@@ -3095,70 +2788,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Category: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>M3 x 6mm Tapered Screws</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Thread Size: M3 
-Thread Pitch: 0.5 mm
-Length: 6 mm
-Threading: Fully Threaded
-Countersink Angle: 90°
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Category: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>M3 x 5mm Cap Screws</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Thread Size: M3 
-Thread Pitch: 0.5 mm
-Length: 5mm
-Threading: Fully Threaded
-Thread Spacing: Coarse
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">Thread Direction: Right Hand 
 Head Type: Socket
 Socket Head Profile: Low
@@ -3193,12 +2822,6 @@
   </si>
   <si>
     <t>Used for holding most of the throttle shells together and various other things.</t>
-  </si>
-  <si>
-    <t>Used for attaching the Main Throttle Grip to the throttle arm, Hold the Grip PCB in place, and attach the Grip Front Block to the Grip Main Body.</t>
-  </si>
-  <si>
-    <t>Used to attach the Flat Braces to the bottom of the Box shell.</t>
   </si>
   <si>
     <t>Only used if you plan to mount the throttle instead of using it on a table or desk.</t>
@@ -3557,6 +3180,2066 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>M2 Fiber Washers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Brand: Uxcell
+Material: Insulating Fiber
+Color: Red
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Lot: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>100 pcs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Outside Diameter: 4 mm
+Inside Diameter: 2 mm
+Thickness: .5 mm
+Fastner Size: M2
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Category: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>M3 Fiber Washers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Brand: Uxcell
+Material: Insulating Fiber
+Color: Red
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Outside Diameter: 8 mm
+Inside Diameter: 3 mm
+Thickness: .5 mm
+Fastner Size: M3
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Lot: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>500 pcs</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Outside Diameter: 5 mm
+Inside Diameter: 3 mm
+Thickness: .2 mm
+Fastner Size: M3
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Category: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>M3 Steel Washers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Brand: WKOOA
+Material: Stainless Steel 18-8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Lot: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>50 pcs</t>
+    </r>
+  </si>
+  <si>
+    <t>Used to reduce drag on Detent Pullup mechanism.</t>
+  </si>
+  <si>
+    <t>Used to prevent shorts/damage on the Main Controller Board when screwing into place.</t>
+  </si>
+  <si>
+    <t>Used to prevent shorts/damage with small switch pcbs in the Main Throttle Grip when screwing them into place.</t>
+  </si>
+  <si>
+    <t>B08ZYKYZH9</t>
+  </si>
+  <si>
+    <t>B07R8CH9BL</t>
+  </si>
+  <si>
+    <t>B01ARADX88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Only use a different vendor for these magnets if you know their ratings are accurate.  Amazon magnet vendors make all sorts of claims regarding magnet strength and very few are accurate.  This build requires true N52 magnets for friction adjusters
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Category: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Magnet</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Strength:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> N52</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Size: 1/8 inch x 1/8 inch.
+Shape: Cylinder
+Orientation: Poles on Flat Side
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WARNING:  Handle with extreme care.  Real N52 magnets even of this small size can be VERY dangerous. They will pinch, bruise, or even rip flesh if you get some between two of these small magnets.  Handle with caution. Store far away from metal and leave wrapped in their bubble wrap sleave until you are ready to install them in the throttle.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BrMax: 14800 gauss 
+Approx. pull force: 1.7 lbs. per mag
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LxW: 8"x11"
+Thickness: 0.8"
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Category: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Natural Leather Hide</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Color: Dealers Choice
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Category: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>UHMW Tape Roll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Thickness: 0.005 in.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W x L: 2 in. x 15 ft
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magnetic Properties: Magnetic
+Elongation: 0.2
+Weight: 1/4 lb.
+Container Type: Coil
+Length: 46 ft.
+</t>
+  </si>
+  <si>
+    <t>89065K75</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Material: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">430 Stainless Steel </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Shape: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Wire</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Shape Type: Wire
+Diameter: 0.045"
+Diam. Tol.: -0.001" to 0.001"
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Tol. Rating: Standard
+Fabrication: Cold Drawn
+Heat Treatment: Annealed (Softened)
+Tensile Strength: 70,000 psi
+Appearance: Matte
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Category: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Flat Brace</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Dimensions: 96 x 20 x 3mm
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Mounting Holes: 5mm
+Material: Stainless Steel
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Color: Black Oxide
+Lot: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4 pcs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Category: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Stick On Rubber Bumpers
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">L x W: 25.4mm x 25.4mm
+Thickness: 4.6mm
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Category: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Ball Bearing
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Profile: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6804ZZ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">OD: 32mm
+ID: 20mm
+Width: 7mm
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Lot: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10 pcs</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Category: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>External USB Cable</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Brand: URWOOW
+Connection Type: USB A / USB A
+Connection Gender: Male / Female
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Category: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Internal USB Cable</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Brand: CERRXIAN
+Connection Type: USB A, USB Mini
+Connection Gender: Male to Male
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Length: 9 inch
+Gauge: 9.0
+Head Angles: Right Angle/Right Angle
+Material: Flexible Rubber
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Capability: Charging and Data
+Data Tx Rate: 0.48 Gigabits Per Second
+Lot: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2 pcs</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Material: Flexible Rubber
+Capability: Charging and Data
+Data Tx Rate: USB 3.0
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Used to connect PC to internal usb cable which connects to the Main Controller Board.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Used to connect the External USB Cable to the Main Controller Board's Teensy 2.0.
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Material: Aluminum Alloy
+Lot: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">10 pcs
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Material: Stanless Steel
+Lot: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5 pcs</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Female Conn. Shape: Flush Rectangle
+Head Angles: Straight/Straight
+Length: 6 ft.
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Category: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>M6 Standoff / Spacer Bar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Length: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>30 mm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Brand: Xiaoyztan
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Category: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">M3 Standoff / Spacer Bar
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Length:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 40 mm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Brand: Uxcell
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Category: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">M3 Standoff / Spacer Bar
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Length:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 35 mm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Brand: Uxcell
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Inner Threading: M3
+Outside Diameter: 5 mm
+Color/Finish: Glossy Black
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inner Threading: M6
+Outside Diameter: 10 mm
+Color/Finish: Polished Steel
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Category: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>M6 Threaded Rod</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Length: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>40 mm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Brand: Smartsails
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Outside Threading: M6 (Fully Threaded)
+Color/Finish: Polished Steel
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Category: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Arcade Joystick Handle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Brand: JW Winco
+Shape: Sphere
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Color/Finish: Glossy Black
+Material: Plastic
+Mat. 2:  Duroplast (Phenolic PF)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Size: 25 mm Diameter
+Threading: M6 threaded insert
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Category: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>M3 Screw Pin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Brand: EPTNNASO
+Outside Threading: M3
+Threaded Portion Length: 3mm
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Unthreaded Length: 8mm
+Unthreaded Width: 2.5mm
+Total Length: 11mm
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Used on the ends of the detent pull up bar to slide along the detent tabs.
+</t>
+  </si>
+  <si>
+    <r>
+      <t>Catagory:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Torsion Spring</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Spring Length @ Torque: 0.625 in
+Deflection Angle (Deg.): 90
+Leg Length: 1.25 in
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Max. Rod Outside Dia.: 0.187 in
+Wind Direction: Left Hand
+Wire Dia.: 0.035 in
+Outside Dia.: 0.315 in
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Used for the following part:
+Detent Pullup Grip
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Catagory: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Torsion Spring</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Spring Length @ Torque: 0.625 in
+Deflection Angle (Deg.): 90
+Leg Length: 1.25 in
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Max. Rod Outside Dia.: 0.187 in
+Wind Direction: Right Hand
+Wire Dia.: 0.035 in
+Outside Dia.: 0.315 in
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Torque @ 1/2 Leg Length (In.-Lbs.): 1.071
+Number of Coils: 3.25
+Lot: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6 pcs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Color/Finish: Black Semigloss
+Material: Steel
+Lot: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10 pcs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">LED Color: (1)pure White
+Leads: Pre-soldered 100mm Leads
+LED Bead Size: 0.06 x 0.03 x 0.03 in.
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Category: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Micro LEDs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Brand: Bowerful
+Series: Micro Litz
+Size: Micro LED-25pcs
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Used for the following part:
+Pinky Push Button
+Thumb Push Button 1, 2, and 3
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Profile: 0603
+Bead Material: Glass
+Lot: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>25 pcs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Note: Link is long because it's for a specific configuration.
+</t>
+  </si>
+  <si>
+    <t>I've linked out to the basic option of a plain black plastic knob with a M6 tapped insert that has a diameter of 25mm but I still can't decide what grip I like the most.  This site makes great lever grips that work well as arcade stick handles.  They range in price and shape but are all of the highest caliber.  Although pricey, I really like the brushed metal 25mm knob but the Ergostyle ball handles and domed gear levers feel great too.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Only one needed but could only find at a reasonable price for a pack of 10.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Used to run through and connect the following:
+Side Throttle Handle, Arm, and Bearing
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Material: Stanless Steel
+Lot: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10 pcs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Used to hold the following parts in place:
+Main Throttle Friction Adjustment Knob
+Side Mini Throttle Friction Adjustment Knob
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Only need four but have to buy in bulk.  Smallest pack I could find from reliable source was 25.
+</t>
+  </si>
+  <si>
+    <t>Units/Lots
+to Buy</t>
+  </si>
+  <si>
+    <t>Usage Description</t>
+  </si>
+  <si>
+    <t>Example Seller
+and Link</t>
+  </si>
+  <si>
+    <t>Cost Per
+Unit / Lot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPDATE:  This link used to offer 4 at this size in black oxide.  Now they offer the right size still but in a pack of 10 with no oxide finish : /  You might need to hunt around if you want to buy less than 10 and if you want black oxide coating.
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Only one is needed if you know you will be mounting the throttle but you still need one if you are mounting using a Thrustmaster TWCS Throttle mount. If using on a desk, two are needed.  If you use this link, select the size option: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3-4/5 Inch(10 Pcs)</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Used for the following input:
+Profile Selector
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is another one where you can get a cheaper part.  There is a mount that is glued in place for the selector switch.  You can just change the cut out size to use a less expensive switch.  I went with this one because the first two I tried both didn't feel right and one failed on me just while testing.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Used for the following input:
+5-way Hat / Encoder Combo(up, down, left, right, center, EncA, EncB)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Used for the following input:
+Audio-In Mute Switch
+Audio-Out Mute Switch
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Used for the following input:
+LED Toggle
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Used for the following input:
+2-way Toggle 1
+2-way Toggle 2
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Housing Material: Stainless Steel
+Life: 40000 Cycles
+Max Operating Temp.: + 85 C
+Min Operating Temp.: - 30 C
+Mounting Type: Bushing
+Series: 100
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Push Button used for the following input:
+Panic Button
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Used for the following input:
+Panic Button
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I like the White version which is "Clicky" with an actuating force of 60±10gf but any Chocolate v1 switch will fit my design.
+If you want, you could get two sample packs from MKUltra.  They are $7 a piece so you'd pay more but you would have two of every variety and some keycaps.  Then you could pick your favorite type for the Push buttons.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Only needed if you are buying the NKK LB Panic button. Otherwise, you can get a switch that will fit the panel cutand has a cover or you can a switch without the cover.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accessory Type: Protective Guard
+Mfr: NKK Switches
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Used for the following input:
+Illuminated 3x3 Push Button Grid
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">LED Color: White
+Material: Stainless Steel
+Lot: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2 pcs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Used for the following inputs:
+Pointer Finger Analog Stick
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Used for the following inputs:
+5-way Hats (up, down, left, right, center)
+3-way Hat (up, down, center)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Used for the following inputs:
+Ring Finger Slider
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand: Bourns
+Element Type: Carbon
+Life: 15000 Cycles
+Product: Slide Pots/Faders
+Subcat: Pots, Trimmers &amp; Rheostats
+Tradename: Pro Audio
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Category: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Slide Potentiometer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Manufacturer: Bourns
+Series: PTA
+Mounting Style: PCB Mount
+Termination Style: PC Pin
+Type: Low Pro Slide Pot
+Travel: 15 mm
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Used for the following inputs:
+Audio Input Level
+Audio Output Level
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Used for the following input:
+Audio-In Knob
+Audio-Out Knob
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Used for the following input:
+Grip End Pinky Knob
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Category: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Multi-Dir. Switch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Manufacturer: Alps Alpine
+Illuminated: Non-Illuminated
+Control Type: Multi-Dir.
+Current Rating: 10 mA
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Units
+Used</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>DIN 
+319-KU-25-M6-E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Used to extend out the back of the Box to prevent tipping when using unmounted on a desk.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No-Slip rubber feet for desktop usage.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Used to smooth rotation of:
+Main Throttle
+Side Throttle
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">So, you can get the cheaper Uxcell bearings which are 13.45 for 10 (and only use 3) or you can get nicer bearings.  It's up to you.  Just know there is a difference.  Here is a link to the bearings I ended up using from McMaster-Carr: https://www.mcmaster.com/5972K279/
+The McMaster-Carr bearings are smoother than any bearing I've gotten from amazon but you pay much more for that quality and precision.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thread Direction: Right Hand
+Thread Size: M2 
+Thread Pitch: 0.4 mm
+Thread Type: Metric 
+Thread Fit: Class 6g
+Length: 5 mm
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Head Height: 0.6 mm
+Countersink Angle: 90°
+Drive Style: JIS
+Drive Size: No. 0
+Thread Type: Metric 
+Thread Spacing: Coarse 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thread Spacing: Coarse
+Diameter: 5.5mm
+Height: 2mm
+Drive Size: 2 mm
+Thread Type: Metric 
+Thread Fit: Class 6g
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Thread Spacing: Coarse
+Thread Fit: Class 6h
+Thread Direction: Right Hand 
+Head Type: Flat
+Flat Head Profile: Standard
+Lot: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>100 pcs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Head Diameter: 9.2 mm
+Head Height: 2.5 mm
+Countersink Angle: 90°
+Drive Style: Phillips 
+Drive Size: No. 2
+Thread Type: Metric 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Head Diameter: 10 mm
+Head Height: 2.8 mm
+Countersink Angle: 90°
+Drive Style: Hex 
+Drive Size: 3 mm
+Thread Type: Metric 
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Thread Spacing: Coarse 
+Thread Fit: Class 6g
+Thread Direction: Right Hand
+Head Type: Flat
+Flat Head Profile: Standard
+Lot: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>100 pcs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Thread Spacing: Coarse 
+Thread Fit: Class 4g6g
+Thread Direction: Right Hand 
+Head Type: Flat
+Flat Head Profile: Standard
+Lot: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>50 pcs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Head Diameter: 6 mm
+Head Height: 1.7 mm
+Countersink Angle: 90°
+Drive Style: Hex 
+Drive Size: 2.1 mm
+Thread Type: Metric 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Used for attaching the Main Throttle Grip to the throttle arm, Hold the Grip PCB in place, and attach the Grip Front Block to the Grip Main Body.
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Category: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>M2 x 5mm Tapered Screws</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Specs. Met: 	</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>JCIS10-70</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Thread Pitch: 0.4 mm
+Length: 5 mm
+Threading: Fully Threaded
+Head Diameter: 3 mm
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Category: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>M2 x 5mm Cap Screws</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Specs. Met: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DIN 912, ISO 4762</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Head Type: Socket
+Socket Head Profile: Standard
+Drive Style: Hex 
+System of Measurement: Metric
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Category: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>M3 x 5mm Cap Screws</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Specs. Met: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DIN 7984</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Thread Size: M3 
+Thread Pitch: 0.5 mm
+Length: 5mm
+Threading: Fully Threaded
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Used to attach the Flat Braces to the bottom of the Box shell.
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Category: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>M3 x 6mm Tapered Screws</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Specs. Met: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DIN 7991</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Thread Size: M3 
+Thread Pitch: 0.5 mm
+Length: 6 mm
+Threading: Fully Threaded
+Countersink Angle: 90°
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Category: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>M3 x 16mm Tapered Screws</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Specs. Met: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DIN 7991</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Thread Size: M3 
+Thread Pitch: 0.5 mm
+Length: 16 mm
+Threading: Fully Threaded
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Category: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">M5 x 12mm Tapered Screws
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Specs. Met: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DIN 7991, ISO 10642</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Thread Size: M5 
+Thread Pitch: 0.8 mm
+Length: 12 mm
+Threading: Fully Threaded
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Category: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>M5 x 20mm Tapered Screws</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Specs. Met: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DIN 965</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Thread Size: M5 
+Thread Pitch: 0.8 mm
+Length: 20 mm
+Threading: Fully Threaded
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Category: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>M5 Nylon Lock Nut</t>
     </r>
     <r>
@@ -3568,7 +5251,18 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-</t>
+Spec. Met: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DIN 985, ISO 10511</t>
     </r>
     <r>
       <rPr>
@@ -3579,7 +5273,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Thread Prop. </t>
+      <t xml:space="preserve">
+Thread Prop. </t>
     </r>
     <r>
       <rPr>
@@ -3601,1537 +5296,136 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Category: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>M2 Fiber Washers</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Brand: Uxcell
-Material: Insulating Fiber
-Color: Red
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Lot: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>100 pcs</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Outside Diameter: 4 mm
-Inside Diameter: 2 mm
-Thickness: .5 mm
-Fastner Size: M2
-</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Category: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>M3 Fiber Washers</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Brand: Uxcell
-Material: Insulating Fiber
-Color: Red
-</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Outside Diameter: 8 mm
-Inside Diameter: 3 mm
-Thickness: .5 mm
-Fastner Size: M3
-</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Lot: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>500 pcs</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Outside Diameter: 5 mm
-Inside Diameter: 3 mm
-Thickness: .2 mm
-Fastner Size: M3
-</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Category: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>M3 Steel Washers</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Brand: WKOOA
-Material: Stainless Steel 18-8</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Lot: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>50 pcs</t>
-    </r>
-  </si>
-  <si>
-    <t>Used to reduce drag on Detent Pullup mechanism.</t>
-  </si>
-  <si>
-    <t>Used to prevent shorts/damage on the Main Controller Board when screwing into place.</t>
-  </si>
-  <si>
-    <t>Used to prevent shorts/damage with small switch pcbs in the Main Throttle Grip when screwing them into place.</t>
-  </si>
-  <si>
-    <t>B08ZYKYZH9</t>
-  </si>
-  <si>
-    <t>B07R8CH9BL</t>
-  </si>
-  <si>
-    <t>B01ARADX88</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Only use a different vendor for these magnets if you know their ratings are accurate.  Amazon magnet vendors make all sorts of claims regarding magnet strength and very few are accurate.  This build requires true N52 magnets for friction adjusters
-</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Category: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Magnet</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Strength:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> N52</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Size: 1/8 inch x 1/8 inch.
-Shape: Cylinder
-Orientation: Poles on Flat Side
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WARNING:  Handle with extreme care.  Real N52 magnets even of this small size can be VERY dangerous. They will pinch, bruise, or even rip flesh if you get some between two of these small magnets.  Handle with caution. Store far away from metal and leave wrapped in their bubble wrap sleave until you are ready to install them in the throttle.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BrMax: 14800 gauss 
-Approx. pull force: 1.7 lbs. per mag
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LxW: 8"x11"
-Thickness: 0.8"
-</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Category: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Natural Leather Hide</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Color: Dealers Choice
-</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Category: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>UHMW Tape Roll</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Thickness: 0.005 in.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">W x L: 2 in. x 15 ft
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Magnetic Properties: Magnetic
-Elongation: 0.2
-Weight: 1/4 lb.
-Container Type: Coil
-Length: 46 ft.
-</t>
-  </si>
-  <si>
-    <t>89065K75</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Material: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">430 Stainless Steel </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Shape: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Wire</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Shape Type: Wire
-Diameter: 0.045"
-Diam. Tol.: -0.001" to 0.001"
-</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Tol. Rating: Standard
-Fabrication: Cold Drawn
-Heat Treatment: Annealed (Softened)
-Tensile Strength: 70,000 psi
-Appearance: Matte
-</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Category: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Flat Brace</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Dimensions: 96 x 20 x 3mm
-</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Mounting Holes: 5mm
-Material: Stainless Steel
-</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Color: Black Oxide
-Lot: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>4 pcs</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Category: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Stick On Rubber Bumpers
-</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">L x W: 25.4mm x 25.4mm
-Thickness: 4.6mm
-</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Category: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Ball Bearing
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Profile: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>6804ZZ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">OD: 32mm
-ID: 20mm
-Width: 7mm
-</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Lot: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>10 pcs</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Category: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>External USB Cable</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Brand: URWOOW
-Connection Type: USB A / USB A
-Connection Gender: Male / Female
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Category: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Internal USB Cable</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Brand: CERRXIAN
-Connection Type: USB A, USB Mini
-Connection Gender: Male to Male
-</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Length: 9 inch
-Gauge: 9.0
-Head Angles: Right Angle/Right Angle
-Material: Flexible Rubber
-</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Capability: Charging and Data
-Data Tx Rate: 0.48 Gigabits Per Second
-Lot: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2 pcs</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Material: Flexible Rubber
-Capability: Charging and Data
-Data Tx Rate: USB 3.0
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Used to connect PC to internal usb cable which connects to the Main Controller Board.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Used to connect the External USB Cable to the Main Controller Board's Teensy 2.0.
-</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Material: Aluminum Alloy
-Lot: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">10 pcs
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Material: Stanless Steel
-Lot: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>5 pcs</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Female Conn. Shape: Flush Rectangle
-Head Angles: Straight/Straight
-Length: 6 ft.
-</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Category: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>M6 Standoff / Spacer Bar</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Length: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>30 mm</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Brand: Xiaoyztan
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Category: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">M3 Standoff / Spacer Bar
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Length:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 40 mm</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Brand: Uxcell
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Category: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">M3 Standoff / Spacer Bar
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Length:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 35 mm</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Brand: Uxcell
-</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Inner Threading: M3
-Outside Diameter: 5 mm
-Color/Finish: Glossy Black
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inner Threading: M6
-Outside Diameter: 10 mm
-Color/Finish: Polished Steel
-</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Category: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>M6 Threaded Rod</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Length: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>40 mm</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Brand: Smartsails
-</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Outside Threading: M6 (Fully Threaded)
-Color/Finish: Polished Steel
-</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Category: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Arcade Joystick Handle</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Brand: JW Winco
-Shape: Sphere
-</t>
-    </r>
-  </si>
-  <si>
-    <t>Color/Finish: Glossy Black
-Material: Plastic
-Mat. 2:  Duroplast (Phenolic PF)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Size: 25 mm Diameter
-Threading: M6 threaded insert
-</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Category: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>M3 Screw Pin</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Brand: EPTNNASO
-Outside Threading: M3
-Threaded Portion Length: 3mm
-</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Unthreaded Length: 8mm
-Unthreaded Width: 2.5mm
-Total Length: 11mm
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Used on the ends of the detent pull up bar to slide along the detent tabs.
-</t>
-  </si>
-  <si>
-    <r>
-      <t>Catagory:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Torsion Spring</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Spring Length @ Torque: 0.625 in
-Deflection Angle (Deg.): 90
-Leg Length: 1.25 in
-</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Max. Rod Outside Dia.: 0.187 in
-Wind Direction: Left Hand
-Wire Dia.: 0.035 in
-Outside Dia.: 0.315 in
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Used for the following part:
-Detent Pullup Grip
-</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Catagory: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Torsion Spring</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Spring Length @ Torque: 0.625 in
-Deflection Angle (Deg.): 90
-Leg Length: 1.25 in
-</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Max. Rod Outside Dia.: 0.187 in
-Wind Direction: Right Hand
-Wire Dia.: 0.035 in
-Outside Dia.: 0.315 in
-</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Torque @ 1/2 Leg Length (In.-Lbs.): 1.071
-Number of Coils: 3.25
-Lot: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>6 pcs</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Color/Finish: Black Semigloss
-Material: Steel
-Lot: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>10 pcs</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">LED Color: (1)pure White
-Leads: Pre-soldered 100mm Leads
-LED Bead Size: 0.06 x 0.03 x 0.03 in.
-</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Category: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Micro LEDs</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Brand: Bowerful
-Series: Micro Litz
-Size: Micro LED-25pcs
-</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Used for the following part:
-Pinky Push Button
-Thumb Push Button 1, 2, and 3
-</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Profile: 0603
-Bead Material: Glass
-Lot: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>25 pcs</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Note: Link is long because it's for a specific configuration.
-</t>
-  </si>
-  <si>
-    <t>I've linked out to the basic option of a plain black plastic knob with a M6 tapped insert that has a diameter of 25mm but I still can't decide what grip I like the most.  This site makes great lever grips that work well as arcade stick handles.  They range in price and shape but are all of the highest caliber.  Although pricey, I really like the brushed metal 25mm knob but the Ergostyle ball handles and domed gear levers feel great too.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Only one needed but could only find at a reasonable price for a pack of 10.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Used to run through and connect the following:
-Side Throttle Handle, Arm, and Bearing
-</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Material: Stanless Steel
-Lot: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>10 pcs</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Used to hold the following parts in place:
-Main Throttle Friction Adjustment Knob
-Side Mini Throttle Friction Adjustment Knob
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Only need four but have to buy in bulk.  Smallest pack I could find from reliable source was 25.
-</t>
-  </si>
-  <si>
-    <t>Units/Lots
-to Buy</t>
-  </si>
-  <si>
-    <t>Part no. /
-Amazon ASIN</t>
-  </si>
-  <si>
-    <t>Usage Description</t>
-  </si>
-  <si>
-    <t>Example Seller
-and Link</t>
-  </si>
-  <si>
-    <t>Cost Per
-Unit / Lot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UPDATE:  This link used to offer 4 at this size in black oxide.  Now they offer the right size still but in a pack of 10 with no oxide finish : /  You might need to hunt around if you want to buy less than 10 and if you want black oxide coating.
-</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Only one is needed if you know you will be mounting the throttle but you still need one if you are mounting using a Thrustmaster TWCS Throttle mount. If using on a desk, two are needed.  If you use this link, select the size option: </t>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Part no</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF007635"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> /
+</t>
     </r>
     <r>
       <rPr>
         <b/>
         <i/>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3-4/5 Inch(10 Pcs)</t>
-    </r>
-    <r>
-      <rPr>
+        <color rgb="FF007635"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Amazon ASIN</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Part no.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> /
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <i/>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Used for the following input:
-Profile Selector
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This is another one where you can get a cheaper part.  There is a mount that is glued in place for the selector switch.  You can just change the cut out size to use a less expensive switch.  I went with this one because the first two I tried both didn't feel right and one failed on me just while testing.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Used for the following input:
-5-way Hat / Encoder Combo(up, down, left, right, center, EncA, EncB)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Used for the following input:
-Audio-In Mute Switch
-Audio-Out Mute Switch
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Used for the following input:
-LED Toggle
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Used for the following input:
-2-way Toggle 1
-2-way Toggle 2
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Housing Material: Stainless Steel
-Life: 40000 Cycles
-Max Operating Temp.: + 85 C
-Min Operating Temp.: - 30 C
-Mounting Type: Bushing
-Series: 100
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Push Button used for the following input:
-Panic Button
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Used for the following input:
-Panic Button
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I like the White version which is "Clicky" with an actuating force of 60±10gf but any Chocolate v1 switch will fit my design.
-If you want, you could get two sample packs from MKUltra.  They are $7 a piece so you'd pay more but you would have two of every variety and some keycaps.  Then you could pick your favorite type for the Push buttons.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Only needed if you are buying the NKK LB Panic button. Otherwise, you can get a switch that will fit the panel cutand has a cover or you can a switch without the cover.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Accessory Type: Protective Guard
-Mfr: NKK Switches
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Used for the following input:
-Illuminated 3x3 Push Button Grid
-</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">LED Color: White
-Material: Stainless Steel
-Lot: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2 pcs</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Used for the following inputs:
-Pointer Finger Analog Stick
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Used for the following inputs:
-5-way Hats (up, down, left, right, center)
-3-way Hat (up, down, center)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Used for the following inputs:
-Ring Finger Slider
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brand: Bourns
-Element Type: Carbon
-Life: 15000 Cycles
-Product: Slide Pots/Faders
-Subcat: Pots, Trimmers &amp; Rheostats
-Tradename: Pro Audio
-</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Category: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Slide Potentiometer</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Manufacturer: Bourns
-Series: PTA
-Mounting Style: PCB Mount
-Termination Style: PC Pin
-Type: Low Pro Slide Pot
-Travel: 15 mm
-</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Used for the following inputs:
-Audio Input Level
-Audio Output Level
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Used for the following input:
-Audio-In Knob
-Audio-Out Knob
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Used for the following input:
-Grip End Pinky Knob
-</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Category: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Multi-Dir. Switch</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Manufacturer: Alps Alpine
-Illuminated: Non-Illuminated
-Control Type: Multi-Dir.
-Current Rating: 10 mA
-</t>
-    </r>
-  </si>
-  <si>
-    <t>Units
-Used</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>DIN 
-319-KU-25-M6-E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Used to extend out the back of the Box to prevent tipping when using unmounted on a desk.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No-Slip rubber feet for desktop usage.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Used to smooth rotation of:
-Main Throttle
-Side Throttle
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">So, you can get the cheaper Uxcell bearings which are 13.45 for 10 (and only use 3) or you can get nicer bearings.  It's up to you.  Just know there is a difference.  Here is a link to the bearings I ended up using from McMaster-Carr: https://www.mcmaster.com/5972K279/
-The McMaster-Carr bearings are smoother than any bearing I've gotten from amazon but you pay much more for that quality and precision.
-</t>
+        <color rgb="FF007635"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Amazon ASIN</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Part no.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">/
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF007635"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Amazon ASIN</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -5141,7 +5435,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5192,6 +5486,68 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF007635"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF007635"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF007635"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF007635"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -5366,7 +5722,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -5439,9 +5795,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -5496,9 +5849,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -5550,6 +5900,39 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -5557,6 +5940,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF007635"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -5869,7 +6257,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5878,7 +6266,7 @@
     <col min="2" max="2" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="48.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="45.5703125" style="33" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="45.5703125" style="32" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="65.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.28515625" style="4" bestFit="1" customWidth="1"/>
@@ -5887,50 +6275,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
-        <v>361</v>
-      </c>
-      <c r="B1" s="38" t="s">
-        <v>391</v>
-      </c>
-      <c r="C1" s="38" t="s">
-        <v>362</v>
-      </c>
-      <c r="D1" s="38" t="s">
-        <v>110</v>
-      </c>
-      <c r="E1" s="38" t="s">
-        <v>122</v>
-      </c>
-      <c r="F1" s="37" t="s">
-        <v>363</v>
-      </c>
-      <c r="G1" s="38" t="s">
-        <v>364</v>
-      </c>
-      <c r="H1" s="38" t="s">
-        <v>365</v>
-      </c>
-      <c r="I1" s="38" t="s">
+      <c r="A1" s="37" t="s">
+        <v>341</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>370</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>398</v>
+      </c>
+      <c r="D1" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="E1" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="F1" s="36" t="s">
+        <v>342</v>
+      </c>
+      <c r="G1" s="37" t="s">
+        <v>343</v>
+      </c>
+      <c r="H1" s="37" t="s">
+        <v>344</v>
+      </c>
+      <c r="I1" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="38" t="s">
-        <v>158</v>
+      <c r="J1" s="37" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="57" t="s">
-        <v>99</v>
-      </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="59"/>
+      <c r="A2" s="55" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="57"/>
     </row>
     <row r="3" spans="1:10" ht="150" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -5939,17 +6327,17 @@
       <c r="B3" s="1">
         <v>56</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D3" s="28" t="s">
-        <v>236</v>
-      </c>
-      <c r="E3" s="33" t="s">
-        <v>218</v>
-      </c>
-      <c r="F3" s="28" t="s">
-        <v>100</v>
+      <c r="C3" s="66" t="s">
+        <v>143</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>234</v>
+      </c>
+      <c r="E3" s="32" t="s">
+        <v>216</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>99</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>0</v>
@@ -5957,7 +6345,7 @@
       <c r="H3" s="4">
         <v>6.99</v>
       </c>
-      <c r="I3" s="34"/>
+      <c r="I3" s="33"/>
     </row>
     <row r="4" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -5966,17 +6354,17 @@
       <c r="B4" s="1">
         <v>12</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="70" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>233</v>
+      </c>
+      <c r="E4" s="32" t="s">
+        <v>217</v>
+      </c>
+      <c r="F4" s="27" t="s">
         <v>94</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>235</v>
-      </c>
-      <c r="E4" s="33" t="s">
-        <v>219</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>95</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>3</v>
@@ -5984,23 +6372,23 @@
       <c r="H4" s="4">
         <v>0.04</v>
       </c>
-      <c r="I4" s="34" t="s">
-        <v>145</v>
+      <c r="I4" s="33" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="53" t="s">
-        <v>101</v>
-      </c>
-      <c r="B5" s="54"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="55"/>
+      <c r="A5" s="51" t="s">
+        <v>100</v>
+      </c>
+      <c r="B5" s="52"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="53"/>
     </row>
     <row r="6" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -6009,17 +6397,17 @@
       <c r="B6" s="1">
         <v>2</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D6" s="28" t="s">
-        <v>233</v>
-      </c>
-      <c r="E6" s="33" t="s">
-        <v>234</v>
-      </c>
-      <c r="F6" s="28" t="s">
-        <v>146</v>
+      <c r="C6" s="70" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="E6" s="32" t="s">
+        <v>232</v>
+      </c>
+      <c r="F6" s="27" t="s">
+        <v>145</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>3</v>
@@ -6027,21 +6415,21 @@
       <c r="H6" s="4">
         <v>0.35</v>
       </c>
-      <c r="I6" s="34"/>
+      <c r="I6" s="33"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="53" t="s">
-        <v>102</v>
-      </c>
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="55"/>
+      <c r="A7" s="51" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7" s="52"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="53"/>
     </row>
     <row r="8" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -6050,16 +6438,16 @@
       <c r="B8" s="1">
         <v>7</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="28" t="s">
-        <v>220</v>
-      </c>
-      <c r="E8" s="33" t="s">
-        <v>221</v>
-      </c>
-      <c r="F8" s="28" t="s">
+      <c r="D8" s="27" t="s">
+        <v>218</v>
+      </c>
+      <c r="E8" s="32" t="s">
+        <v>219</v>
+      </c>
+      <c r="F8" s="27" t="s">
         <v>4</v>
       </c>
       <c r="G8" s="3" t="s">
@@ -6068,21 +6456,21 @@
       <c r="H8" s="5">
         <v>2.2999999999999998</v>
       </c>
-      <c r="I8" s="34"/>
+      <c r="I8" s="33"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="53" t="s">
-        <v>103</v>
-      </c>
-      <c r="B9" s="54"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="55"/>
+      <c r="A9" s="51" t="s">
+        <v>102</v>
+      </c>
+      <c r="B9" s="52"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="53"/>
     </row>
     <row r="10" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -6091,17 +6479,17 @@
       <c r="B10" s="1">
         <v>1</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="66" t="s">
+        <v>146</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>220</v>
+      </c>
+      <c r="E10" s="32" t="s">
         <v>147</v>
       </c>
-      <c r="D10" s="28" t="s">
-        <v>222</v>
-      </c>
-      <c r="E10" s="33" t="s">
-        <v>148</v>
-      </c>
-      <c r="F10" s="28" t="s">
-        <v>93</v>
+      <c r="F10" s="27" t="s">
+        <v>92</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>0</v>
@@ -6109,21 +6497,21 @@
       <c r="H10" s="5">
         <v>18.53</v>
       </c>
-      <c r="I10" s="34"/>
+      <c r="I10" s="33"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="53" t="s">
-        <v>104</v>
-      </c>
-      <c r="B11" s="54"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="54"/>
-      <c r="H11" s="54"/>
-      <c r="I11" s="54"/>
-      <c r="J11" s="55"/>
+      <c r="A11" s="51" t="s">
+        <v>103</v>
+      </c>
+      <c r="B11" s="52"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="53"/>
     </row>
     <row r="12" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -6132,14 +6520,14 @@
       <c r="B12" s="1">
         <v>2</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="28" t="s">
-        <v>223</v>
-      </c>
-      <c r="F12" s="28" t="s">
-        <v>149</v>
+      <c r="D12" s="27" t="s">
+        <v>221</v>
+      </c>
+      <c r="F12" s="27" t="s">
+        <v>148</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>1</v>
@@ -6147,11 +6535,11 @@
       <c r="H12" s="5">
         <v>1.65</v>
       </c>
-      <c r="I12" s="34" t="s">
-        <v>156</v>
-      </c>
-      <c r="J12" s="56" t="s">
-        <v>108</v>
+      <c r="I12" s="33" t="s">
+        <v>155</v>
+      </c>
+      <c r="J12" s="54" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="180" x14ac:dyDescent="0.25">
@@ -6161,14 +6549,14 @@
       <c r="B13" s="1">
         <v>24</v>
       </c>
-      <c r="C13" s="28" t="s">
+      <c r="C13" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="28" t="s">
-        <v>224</v>
-      </c>
-      <c r="F13" s="28" t="s">
-        <v>153</v>
+      <c r="D13" s="27" t="s">
+        <v>222</v>
+      </c>
+      <c r="F13" s="27" t="s">
+        <v>152</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>1</v>
@@ -6176,10 +6564,10 @@
       <c r="H13" s="5">
         <v>4.6900000000000004</v>
       </c>
-      <c r="I13" s="34" t="s">
-        <v>154</v>
-      </c>
-      <c r="J13" s="56"/>
+      <c r="I13" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="J13" s="54"/>
     </row>
     <row r="14" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -6188,14 +6576,14 @@
       <c r="B14" s="1">
         <v>1</v>
       </c>
-      <c r="C14" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="D14" s="28" t="s">
-        <v>225</v>
-      </c>
-      <c r="F14" s="28" t="s">
-        <v>150</v>
+      <c r="C14" s="69" t="s">
+        <v>96</v>
+      </c>
+      <c r="D14" s="27" t="s">
+        <v>223</v>
+      </c>
+      <c r="F14" s="27" t="s">
+        <v>149</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>1</v>
@@ -6203,10 +6591,10 @@
       <c r="H14" s="5">
         <v>2.0499999999999998</v>
       </c>
-      <c r="I14" s="34" t="s">
-        <v>155</v>
-      </c>
-      <c r="J14" s="56"/>
+      <c r="I14" s="33" t="s">
+        <v>154</v>
+      </c>
+      <c r="J14" s="54"/>
     </row>
     <row r="15" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
@@ -6215,14 +6603,14 @@
       <c r="B15" s="1">
         <v>2</v>
       </c>
-      <c r="C15" s="28" t="s">
+      <c r="C15" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="28" t="s">
-        <v>226</v>
-      </c>
-      <c r="F15" s="28" t="s">
-        <v>151</v>
+      <c r="D15" s="27" t="s">
+        <v>224</v>
+      </c>
+      <c r="F15" s="27" t="s">
+        <v>150</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>1</v>
@@ -6230,10 +6618,10 @@
       <c r="H15" s="5">
         <v>1.96</v>
       </c>
-      <c r="I15" s="34" t="s">
-        <v>156</v>
-      </c>
-      <c r="J15" s="56"/>
+      <c r="I15" s="33" t="s">
+        <v>155</v>
+      </c>
+      <c r="J15" s="54"/>
     </row>
     <row r="16" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
@@ -6242,14 +6630,14 @@
       <c r="B16" s="1">
         <v>5</v>
       </c>
-      <c r="C16" s="28" t="s">
+      <c r="C16" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="28" t="s">
-        <v>165</v>
-      </c>
-      <c r="F16" s="28" t="s">
-        <v>152</v>
+      <c r="D16" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="F16" s="27" t="s">
+        <v>151</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>1</v>
@@ -6257,24 +6645,24 @@
       <c r="H16" s="5">
         <v>6.64</v>
       </c>
-      <c r="I16" s="34" t="s">
-        <v>157</v>
-      </c>
-      <c r="J16" s="56"/>
+      <c r="I16" s="33" t="s">
+        <v>156</v>
+      </c>
+      <c r="J16" s="54"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="53" t="s">
-        <v>105</v>
-      </c>
-      <c r="B17" s="54"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="54"/>
-      <c r="H17" s="54"/>
-      <c r="I17" s="54"/>
-      <c r="J17" s="55"/>
+      <c r="A17" s="51" t="s">
+        <v>104</v>
+      </c>
+      <c r="B17" s="52"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="53"/>
     </row>
     <row r="18" spans="1:10" ht="150" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
@@ -6283,16 +6671,16 @@
       <c r="B18" s="1">
         <v>1</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="28" t="s">
-        <v>230</v>
-      </c>
-      <c r="E18" s="33" t="s">
-        <v>231</v>
-      </c>
-      <c r="F18" s="28" t="s">
+      <c r="D18" s="27" t="s">
+        <v>228</v>
+      </c>
+      <c r="E18" s="32" t="s">
+        <v>229</v>
+      </c>
+      <c r="F18" s="27" t="s">
         <v>12</v>
       </c>
       <c r="G18" s="3" t="s">
@@ -6309,16 +6697,16 @@
       <c r="B19" s="1">
         <v>1</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D19" s="28" t="s">
-        <v>227</v>
-      </c>
-      <c r="E19" s="33" t="s">
-        <v>232</v>
-      </c>
-      <c r="F19" s="28" t="s">
+      <c r="C19" s="70" t="s">
+        <v>108</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>225</v>
+      </c>
+      <c r="E19" s="32" t="s">
+        <v>230</v>
+      </c>
+      <c r="F19" s="27" t="s">
         <v>13</v>
       </c>
       <c r="G19" s="3" t="s">
@@ -6335,16 +6723,16 @@
       <c r="B20" s="1">
         <v>1</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="28" t="s">
-        <v>228</v>
-      </c>
-      <c r="E20" s="33" t="s">
-        <v>229</v>
-      </c>
-      <c r="F20" s="28" t="s">
+      <c r="D20" s="27" t="s">
+        <v>226</v>
+      </c>
+      <c r="E20" s="32" t="s">
+        <v>227</v>
+      </c>
+      <c r="F20" s="27" t="s">
         <v>14</v>
       </c>
       <c r="G20" s="3" t="s">
@@ -6353,8 +6741,8 @@
       <c r="H20" s="4">
         <v>10.97</v>
       </c>
-      <c r="I20" s="34" t="s">
-        <v>159</v>
+      <c r="I20" s="33" t="s">
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -6393,7 +6781,7 @@
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C29" sqref="C29"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6402,7 +6790,7 @@
     <col min="2" max="2" width="7.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="21.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="51" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="53.140625" style="33" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="53.140625" style="32" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="46.140625" style="2" customWidth="1"/>
     <col min="7" max="7" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" style="4" bestFit="1" customWidth="1"/>
@@ -6410,31 +6798,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
-        <v>361</v>
-      </c>
-      <c r="B1" s="38" t="s">
-        <v>391</v>
-      </c>
-      <c r="C1" s="38" t="s">
-        <v>362</v>
-      </c>
-      <c r="D1" s="38" t="s">
-        <v>110</v>
-      </c>
-      <c r="E1" s="38" t="s">
-        <v>122</v>
-      </c>
-      <c r="F1" s="37" t="s">
-        <v>363</v>
-      </c>
-      <c r="G1" s="38" t="s">
-        <v>364</v>
-      </c>
-      <c r="H1" s="38" t="s">
-        <v>365</v>
-      </c>
-      <c r="I1" s="38" t="s">
+      <c r="A1" s="37" t="s">
+        <v>341</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>370</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>397</v>
+      </c>
+      <c r="D1" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="E1" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="F1" s="36" t="s">
+        <v>342</v>
+      </c>
+      <c r="G1" s="37" t="s">
+        <v>343</v>
+      </c>
+      <c r="H1" s="37" t="s">
+        <v>344</v>
+      </c>
+      <c r="I1" s="37" t="s">
         <v>25</v>
       </c>
     </row>
@@ -6445,17 +6833,17 @@
       <c r="B2" s="1">
         <v>20</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="70" t="s">
         <v>15</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="E2" s="33" t="s">
-        <v>212</v>
+        <v>214</v>
+      </c>
+      <c r="E2" s="32" t="s">
+        <v>210</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>3</v>
@@ -6463,8 +6851,8 @@
       <c r="H2" s="4">
         <v>0.28399999999999997</v>
       </c>
-      <c r="I2" s="34" t="s">
-        <v>143</v>
+      <c r="I2" s="33" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="135" x14ac:dyDescent="0.25">
@@ -6474,17 +6862,17 @@
       <c r="B3" s="1">
         <v>35</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="70" t="s">
         <v>16</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="E3" s="33" t="s">
         <v>213</v>
       </c>
+      <c r="E3" s="32" t="s">
+        <v>211</v>
+      </c>
       <c r="F3" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>3</v>
@@ -6492,8 +6880,8 @@
       <c r="H3" s="5">
         <v>7.2999999999999995E-2</v>
       </c>
-      <c r="I3" s="34" t="s">
-        <v>141</v>
+      <c r="I3" s="33" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="135" x14ac:dyDescent="0.25">
@@ -6503,17 +6891,17 @@
       <c r="B4" s="1">
         <v>10</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="70" t="s">
         <v>17</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="E4" s="33" t="s">
-        <v>217</v>
+        <v>212</v>
+      </c>
+      <c r="E4" s="32" t="s">
+        <v>215</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>3</v>
@@ -6521,8 +6909,8 @@
       <c r="H4" s="5">
         <v>0.125</v>
       </c>
-      <c r="I4" s="34" t="s">
-        <v>142</v>
+      <c r="I4" s="33" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -6575,18 +6963,18 @@
   <dimension ref="A1:J47"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C26" activeCellId="14" sqref="C4 C5 C7 C8 C10 C15 C17 C18 C19 C20 C22 C24 C25 C28 C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="33.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.28515625" style="33" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.28515625" style="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.28515625" style="32" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.28515625" style="34" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="45.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" style="4" bestFit="1" customWidth="1"/>
@@ -6595,50 +6983,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
-        <v>361</v>
-      </c>
-      <c r="B1" s="50" t="s">
-        <v>391</v>
-      </c>
-      <c r="C1" s="50" t="s">
-        <v>362</v>
-      </c>
-      <c r="D1" s="50" t="s">
-        <v>110</v>
-      </c>
-      <c r="E1" s="50" t="s">
-        <v>122</v>
-      </c>
-      <c r="F1" s="50" t="s">
-        <v>160</v>
-      </c>
-      <c r="G1" s="51" t="s">
-        <v>363</v>
-      </c>
-      <c r="H1" s="50" t="s">
-        <v>364</v>
-      </c>
-      <c r="I1" s="50" t="s">
-        <v>365</v>
-      </c>
-      <c r="J1" s="50" t="s">
+      <c r="A1" s="64" t="s">
+        <v>341</v>
+      </c>
+      <c r="B1" s="48" t="s">
+        <v>370</v>
+      </c>
+      <c r="C1" s="48" t="s">
+        <v>397</v>
+      </c>
+      <c r="D1" s="48" t="s">
+        <v>109</v>
+      </c>
+      <c r="E1" s="48" t="s">
+        <v>121</v>
+      </c>
+      <c r="F1" s="48" t="s">
+        <v>159</v>
+      </c>
+      <c r="G1" s="49" t="s">
+        <v>342</v>
+      </c>
+      <c r="H1" s="48" t="s">
+        <v>343</v>
+      </c>
+      <c r="I1" s="48" t="s">
+        <v>344</v>
+      </c>
+      <c r="J1" s="48" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="55"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="53"/>
     </row>
     <row r="3" spans="1:10" ht="180" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -6647,17 +7035,17 @@
       <c r="B3" s="1">
         <v>2</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="63" t="s">
+        <v>137</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>162</v>
+      </c>
+      <c r="E3" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="G3" s="30" t="s">
         <v>138</v>
-      </c>
-      <c r="D3" s="31" t="s">
-        <v>164</v>
-      </c>
-      <c r="E3" s="33" t="s">
-        <v>177</v>
-      </c>
-      <c r="G3" s="31" t="s">
-        <v>139</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>0</v>
@@ -6665,8 +7053,8 @@
       <c r="I3" s="5">
         <v>13.69</v>
       </c>
-      <c r="J3" s="32" t="s">
-        <v>114</v>
+      <c r="J3" s="31" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="150" x14ac:dyDescent="0.25">
@@ -6676,20 +7064,20 @@
       <c r="B4" s="1">
         <v>1</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="69" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E4" s="32" t="s">
         <v>184</v>
       </c>
-      <c r="E4" s="33" t="s">
-        <v>186</v>
-      </c>
-      <c r="F4" s="35" t="s">
-        <v>185</v>
+      <c r="F4" s="34" t="s">
+        <v>183</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>3</v>
@@ -6705,20 +7093,20 @@
       <c r="B5" s="1">
         <v>1</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="70" t="s">
         <v>67</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="E5" s="33" t="s">
-        <v>183</v>
-      </c>
-      <c r="F5" s="35" t="s">
-        <v>385</v>
+        <v>365</v>
+      </c>
+      <c r="E5" s="32" t="s">
+        <v>181</v>
+      </c>
+      <c r="F5" s="34" t="s">
+        <v>364</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>384</v>
+        <v>363</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>5</v>
@@ -6729,18 +7117,18 @@
       <c r="J5" s="6"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="54"/>
-      <c r="I6" s="54"/>
-      <c r="J6" s="55"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="53"/>
     </row>
     <row r="7" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -6749,20 +7137,20 @@
       <c r="B7" s="1">
         <v>4</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="69" t="s">
         <v>21</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="E7" s="33" t="s">
-        <v>187</v>
-      </c>
-      <c r="F7" s="35" t="s">
-        <v>188</v>
+        <v>369</v>
+      </c>
+      <c r="E7" s="32" t="s">
+        <v>185</v>
+      </c>
+      <c r="F7" s="34" t="s">
+        <v>186</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>383</v>
+        <v>362</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>5</v>
@@ -6779,20 +7167,20 @@
       <c r="B8" s="1">
         <v>1</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="69" t="s">
         <v>22</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E8" s="32" t="s">
+        <v>188</v>
+      </c>
+      <c r="F8" s="34" t="s">
         <v>189</v>
       </c>
-      <c r="E8" s="33" t="s">
-        <v>190</v>
-      </c>
-      <c r="F8" s="35" t="s">
-        <v>191</v>
-      </c>
       <c r="G8" s="2" t="s">
-        <v>370</v>
+        <v>349</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>5</v>
@@ -6803,18 +7191,18 @@
       <c r="J8" s="6"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="53" t="s">
+      <c r="A9" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="54"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="55"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="53"/>
     </row>
     <row r="10" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -6823,20 +7211,20 @@
       <c r="B10" s="1">
         <v>1</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="69" t="s">
         <v>68</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="E10" s="33" t="s">
         <v>192</v>
       </c>
-      <c r="F10" s="35" t="s">
-        <v>193</v>
+      <c r="E10" s="32" t="s">
+        <v>190</v>
+      </c>
+      <c r="F10" s="34" t="s">
+        <v>191</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>382</v>
+        <v>361</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
@@ -6847,18 +7235,18 @@
       <c r="J10" s="6"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="53" t="s">
-        <v>91</v>
-      </c>
-      <c r="B11" s="54"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="54"/>
-      <c r="H11" s="54"/>
-      <c r="I11" s="54"/>
-      <c r="J11" s="55"/>
+      <c r="A11" s="51" t="s">
+        <v>90</v>
+      </c>
+      <c r="B11" s="52"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="53"/>
     </row>
     <row r="12" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -6867,20 +7255,20 @@
       <c r="B12" s="1">
         <v>2</v>
       </c>
-      <c r="C12" s="26" t="s">
-        <v>136</v>
+      <c r="C12" s="65" t="s">
+        <v>135</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E12" s="32" t="s">
+        <v>194</v>
+      </c>
+      <c r="F12" s="34" t="s">
         <v>195</v>
       </c>
-      <c r="E12" s="33" t="s">
-        <v>196</v>
-      </c>
-      <c r="F12" s="35" t="s">
-        <v>197</v>
-      </c>
       <c r="G12" s="2" t="s">
-        <v>371</v>
+        <v>350</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>0</v>
@@ -6897,20 +7285,20 @@
       <c r="B13" s="1">
         <v>1</v>
       </c>
-      <c r="C13" s="26" t="s">
-        <v>137</v>
+      <c r="C13" s="65" t="s">
+        <v>136</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>198</v>
-      </c>
-      <c r="E13" s="33" t="s">
         <v>196</v>
       </c>
-      <c r="F13" s="35" t="s">
-        <v>381</v>
+      <c r="E13" s="32" t="s">
+        <v>194</v>
+      </c>
+      <c r="F13" s="34" t="s">
+        <v>360</v>
       </c>
       <c r="G13" s="23" t="s">
-        <v>372</v>
+        <v>351</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>0</v>
@@ -6921,18 +7309,18 @@
       <c r="J13" s="24"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="53" t="s">
+      <c r="A14" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="54"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="54"/>
-      <c r="I14" s="54"/>
-      <c r="J14" s="55"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="53"/>
     </row>
     <row r="15" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
@@ -6941,20 +7329,20 @@
       <c r="B15" s="1">
         <v>2</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="70" t="s">
         <v>24</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="E15" s="33" t="s">
-        <v>200</v>
-      </c>
-      <c r="F15" s="35" t="s">
-        <v>374</v>
+        <v>197</v>
+      </c>
+      <c r="E15" s="32" t="s">
+        <v>198</v>
+      </c>
+      <c r="F15" s="34" t="s">
+        <v>353</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>373</v>
+        <v>352</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>5</v>
@@ -6965,18 +7353,18 @@
       <c r="J15" s="6"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="53" t="s">
-        <v>92</v>
-      </c>
-      <c r="B16" s="54"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="54"/>
-      <c r="H16" s="54"/>
-      <c r="I16" s="54"/>
-      <c r="J16" s="55"/>
+      <c r="A16" s="51" t="s">
+        <v>91</v>
+      </c>
+      <c r="B16" s="52"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="53"/>
     </row>
     <row r="17" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
@@ -6985,20 +7373,20 @@
       <c r="B17" s="1">
         <v>9</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="70" t="s">
         <v>26</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="E17" s="33" t="s">
-        <v>202</v>
-      </c>
-      <c r="F17" s="35" t="s">
         <v>201</v>
       </c>
+      <c r="E17" s="32" t="s">
+        <v>200</v>
+      </c>
+      <c r="F17" s="34" t="s">
+        <v>199</v>
+      </c>
       <c r="G17" s="2" t="s">
-        <v>380</v>
+        <v>359</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>5</v>
@@ -7006,7 +7394,7 @@
       <c r="I17" s="4">
         <v>9.61</v>
       </c>
-      <c r="J17" s="56" t="s">
+      <c r="J17" s="54" t="s">
         <v>29</v>
       </c>
     </row>
@@ -7017,20 +7405,20 @@
       <c r="B18" s="1">
         <v>1</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="70" t="s">
         <v>27</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="E18" s="33" t="s">
-        <v>168</v>
-      </c>
-      <c r="F18" s="35" t="s">
-        <v>179</v>
+        <v>178</v>
+      </c>
+      <c r="E18" s="32" t="s">
+        <v>166</v>
+      </c>
+      <c r="F18" s="34" t="s">
+        <v>177</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>375</v>
+        <v>354</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -7038,7 +7426,7 @@
       <c r="I18" s="4">
         <v>14.62</v>
       </c>
-      <c r="J18" s="56"/>
+      <c r="J18" s="54"/>
     </row>
     <row r="19" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
@@ -7047,20 +7435,20 @@
       <c r="B19" s="1">
         <v>1</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="70" t="s">
         <v>28</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="E19" s="33" t="s">
-        <v>379</v>
-      </c>
-      <c r="F19" s="35" t="s">
-        <v>205</v>
+        <v>202</v>
+      </c>
+      <c r="E19" s="32" t="s">
+        <v>358</v>
+      </c>
+      <c r="F19" s="34" t="s">
+        <v>203</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>376</v>
+        <v>355</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>3</v>
@@ -7069,7 +7457,7 @@
         <v>2.3199999999999998</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>378</v>
+        <v>357</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="120" x14ac:dyDescent="0.25">
@@ -7079,17 +7467,17 @@
       <c r="B20" s="1">
         <v>5</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="70" t="s">
         <v>30</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>181</v>
-      </c>
-      <c r="E20" s="33" t="s">
-        <v>182</v>
+        <v>179</v>
+      </c>
+      <c r="E20" s="32" t="s">
+        <v>180</v>
       </c>
       <c r="G20" s="21" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>31</v>
@@ -7098,22 +7486,22 @@
         <v>5.5</v>
       </c>
       <c r="J20" s="22" t="s">
-        <v>377</v>
+        <v>356</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="53" t="s">
+      <c r="A21" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="54"/>
-      <c r="C21" s="54"/>
-      <c r="D21" s="54"/>
-      <c r="E21" s="54"/>
-      <c r="F21" s="54"/>
-      <c r="G21" s="54"/>
-      <c r="H21" s="54"/>
-      <c r="I21" s="54"/>
-      <c r="J21" s="55"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="53"/>
     </row>
     <row r="22" spans="1:10" ht="150" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
@@ -7122,20 +7510,20 @@
       <c r="B22" s="1">
         <v>1</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="70" t="s">
         <v>33</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="E22" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="E22" s="32" t="s">
+        <v>165</v>
+      </c>
+      <c r="F22" s="34" t="s">
         <v>167</v>
       </c>
-      <c r="F22" s="35" t="s">
-        <v>169</v>
-      </c>
       <c r="G22" s="2" t="s">
-        <v>368</v>
+        <v>347</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>3</v>
@@ -7144,22 +7532,22 @@
         <v>20</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>369</v>
+        <v>348</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="53" t="s">
+      <c r="A23" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="54"/>
-      <c r="C23" s="54"/>
-      <c r="D23" s="54"/>
-      <c r="E23" s="54"/>
-      <c r="F23" s="54"/>
-      <c r="G23" s="54"/>
-      <c r="H23" s="54"/>
-      <c r="I23" s="54"/>
-      <c r="J23" s="55"/>
+      <c r="B23" s="52"/>
+      <c r="C23" s="52"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="52"/>
+      <c r="I23" s="52"/>
+      <c r="J23" s="53"/>
     </row>
     <row r="24" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
@@ -7168,20 +7556,20 @@
       <c r="B24" s="1">
         <v>1</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="70" t="s">
         <v>35</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="E24" s="33" t="s">
         <v>206</v>
       </c>
-      <c r="F24" s="35" t="s">
-        <v>207</v>
+      <c r="E24" s="32" t="s">
+        <v>204</v>
+      </c>
+      <c r="F24" s="34" t="s">
+        <v>205</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>368</v>
+        <v>347</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>5</v>
@@ -7190,7 +7578,7 @@
         <v>6.04</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="75" x14ac:dyDescent="0.25">
@@ -7200,20 +7588,20 @@
       <c r="B25" s="1">
         <v>1</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="70" t="s">
         <v>36</v>
       </c>
       <c r="D25" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E25" s="32" t="s">
         <v>171</v>
       </c>
-      <c r="E25" s="33" t="s">
-        <v>173</v>
-      </c>
-      <c r="F25" s="35" t="s">
-        <v>172</v>
+      <c r="F25" s="34" t="s">
+        <v>170</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>389</v>
+        <v>368</v>
       </c>
       <c r="H25" s="3" t="s">
         <v>3</v>
@@ -7230,20 +7618,20 @@
       <c r="B26" s="1">
         <v>1</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="70" t="s">
         <v>37</v>
       </c>
       <c r="D26" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E26" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="F26" s="34" t="s">
         <v>174</v>
       </c>
-      <c r="E26" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="F26" s="35" t="s">
-        <v>176</v>
-      </c>
       <c r="G26" s="2" t="s">
-        <v>388</v>
+        <v>367</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
@@ -7252,22 +7640,22 @@
         <v>10.09</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="53" t="s">
-        <v>89</v>
-      </c>
-      <c r="B27" s="54"/>
-      <c r="C27" s="54"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="54"/>
-      <c r="F27" s="54"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="54"/>
-      <c r="I27" s="54"/>
-      <c r="J27" s="55"/>
+      <c r="A27" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="B27" s="52"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="52"/>
+      <c r="J27" s="53"/>
     </row>
     <row r="28" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
@@ -7276,20 +7664,20 @@
       <c r="B28" s="1">
         <v>2</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>90</v>
+      <c r="C28" s="70" t="s">
+        <v>89</v>
       </c>
       <c r="D28" s="23" t="s">
-        <v>209</v>
-      </c>
-      <c r="E28" s="33" t="s">
-        <v>210</v>
-      </c>
-      <c r="F28" s="35" t="s">
-        <v>170</v>
+        <v>207</v>
+      </c>
+      <c r="E28" s="32" t="s">
+        <v>208</v>
+      </c>
+      <c r="F28" s="34" t="s">
+        <v>168</v>
       </c>
       <c r="G28" s="23" t="s">
-        <v>387</v>
+        <v>366</v>
       </c>
       <c r="H28" s="3" t="s">
         <v>3</v>
@@ -7297,8 +7685,8 @@
       <c r="I28" s="5">
         <v>2.4900000000000002</v>
       </c>
-      <c r="J28" s="36" t="s">
-        <v>211</v>
+      <c r="J28" s="35" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -7402,7 +7790,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E39" sqref="E39"/>
+      <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7411,8 +7799,8 @@
     <col min="2" max="2" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.85546875" style="33" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="37.42578125" style="42" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.85546875" style="32" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.42578125" style="41" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="46.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.28515625" style="4" bestFit="1" customWidth="1"/>
@@ -7421,218 +7809,218 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
-        <v>361</v>
-      </c>
-      <c r="B1" s="38" t="s">
-        <v>391</v>
-      </c>
-      <c r="C1" s="38" t="s">
-        <v>362</v>
-      </c>
-      <c r="D1" s="38" t="s">
-        <v>110</v>
-      </c>
-      <c r="E1" s="38" t="s">
-        <v>122</v>
-      </c>
-      <c r="F1" s="38" t="s">
-        <v>160</v>
-      </c>
-      <c r="G1" s="37" t="s">
-        <v>363</v>
-      </c>
-      <c r="H1" s="38" t="s">
-        <v>364</v>
-      </c>
-      <c r="I1" s="38" t="s">
-        <v>365</v>
-      </c>
-      <c r="J1" s="38" t="s">
+      <c r="A1" s="37" t="s">
+        <v>341</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>370</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>397</v>
+      </c>
+      <c r="D1" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="E1" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="F1" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="G1" s="36" t="s">
+        <v>342</v>
+      </c>
+      <c r="H1" s="37" t="s">
+        <v>343</v>
+      </c>
+      <c r="I1" s="37" t="s">
+        <v>344</v>
+      </c>
+      <c r="J1" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="K1" s="38" t="s">
-        <v>158</v>
+      <c r="K1" s="37" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="62"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="60"/>
     </row>
     <row r="3" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="52">
+      <c r="A3" s="50">
         <v>8</v>
       </c>
-      <c r="B3" s="52">
+      <c r="B3" s="50">
         <v>8</v>
       </c>
-      <c r="C3" s="45" t="s">
+      <c r="C3" s="71" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="41" t="s">
-        <v>298</v>
-      </c>
-      <c r="E3" s="41" t="s">
-        <v>299</v>
-      </c>
-      <c r="F3" s="41" t="s">
-        <v>301</v>
-      </c>
-      <c r="G3" s="41" t="s">
-        <v>116</v>
-      </c>
-      <c r="H3" s="46" t="s">
+      <c r="D3" s="40" t="s">
+        <v>278</v>
+      </c>
+      <c r="E3" s="40" t="s">
+        <v>279</v>
+      </c>
+      <c r="F3" s="40" t="s">
+        <v>281</v>
+      </c>
+      <c r="G3" s="40" t="s">
+        <v>115</v>
+      </c>
+      <c r="H3" s="44" t="s">
         <v>45</v>
       </c>
       <c r="I3" s="18">
         <v>0.1</v>
       </c>
-      <c r="J3" s="47" t="s">
-        <v>297</v>
-      </c>
-      <c r="K3" s="44" t="s">
-        <v>300</v>
+      <c r="J3" s="45" t="s">
+        <v>277</v>
+      </c>
+      <c r="K3" s="43" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="55"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A5" s="52">
+      <c r="A5" s="50">
         <v>1</v>
       </c>
-      <c r="B5" s="52" t="s">
-        <v>392</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>134</v>
+      <c r="B5" s="50" t="s">
+        <v>371</v>
+      </c>
+      <c r="C5" s="63" t="s">
+        <v>133</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="E5" s="33" t="s">
-        <v>302</v>
-      </c>
-      <c r="F5" s="42" t="s">
-        <v>304</v>
-      </c>
-      <c r="G5" s="42" t="s">
-        <v>115</v>
+        <v>283</v>
+      </c>
+      <c r="E5" s="32" t="s">
+        <v>282</v>
+      </c>
+      <c r="F5" s="41" t="s">
+        <v>284</v>
+      </c>
+      <c r="G5" s="41" t="s">
+        <v>114</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I5" s="48">
+      <c r="I5" s="46">
         <v>8.99</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="54"/>
-      <c r="I6" s="54"/>
-      <c r="J6" s="54"/>
-      <c r="K6" s="55"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="53"/>
     </row>
     <row r="7" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="52">
+      <c r="A7" s="50">
         <v>1</v>
       </c>
-      <c r="B7" s="52" t="s">
-        <v>392</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>135</v>
+      <c r="B7" s="50" t="s">
+        <v>371</v>
+      </c>
+      <c r="C7" s="63" t="s">
+        <v>134</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="E7" s="33" t="s">
-        <v>306</v>
-      </c>
-      <c r="F7" s="42" t="s">
-        <v>307</v>
-      </c>
-      <c r="G7" s="42" t="s">
-        <v>121</v>
+        <v>285</v>
+      </c>
+      <c r="E7" s="32" t="s">
+        <v>286</v>
+      </c>
+      <c r="F7" s="41" t="s">
+        <v>287</v>
+      </c>
+      <c r="G7" s="41" t="s">
+        <v>120</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="48">
+      <c r="I7" s="46">
         <v>14.55</v>
       </c>
       <c r="J7" s="8"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="53" t="s">
+      <c r="A8" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="54"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="54"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="54"/>
-      <c r="K8" s="55"/>
+      <c r="B8" s="52"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="53"/>
     </row>
     <row r="9" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A9" s="52">
+      <c r="A9" s="50">
         <v>1</v>
       </c>
-      <c r="B9" s="52" t="s">
-        <v>392</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>309</v>
+      <c r="B9" s="50" t="s">
+        <v>371</v>
+      </c>
+      <c r="C9" s="70" t="s">
+        <v>289</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="E9" s="33" t="s">
-        <v>311</v>
-      </c>
-      <c r="F9" s="42" t="s">
-        <v>308</v>
-      </c>
-      <c r="G9" s="42" t="s">
-        <v>359</v>
+        <v>290</v>
+      </c>
+      <c r="E9" s="32" t="s">
+        <v>291</v>
+      </c>
+      <c r="F9" s="41" t="s">
+        <v>288</v>
+      </c>
+      <c r="G9" s="41" t="s">
+        <v>339</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>46</v>
@@ -7641,45 +8029,45 @@
         <v>9.9700000000000006</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="53" t="s">
+      <c r="A10" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="54"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="54"/>
-      <c r="J10" s="54"/>
-      <c r="K10" s="55"/>
+      <c r="B10" s="52"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="53"/>
     </row>
     <row r="11" spans="1:11" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="52">
+      <c r="A11" s="50">
         <v>1</v>
       </c>
-      <c r="B11" s="52">
+      <c r="B11" s="50">
         <v>2</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>133</v>
+      <c r="C11" s="63" t="s">
+        <v>132</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="E11" s="33" t="s">
-        <v>313</v>
-      </c>
-      <c r="F11" s="42" t="s">
-        <v>314</v>
+        <v>292</v>
+      </c>
+      <c r="E11" s="32" t="s">
+        <v>293</v>
+      </c>
+      <c r="F11" s="41" t="s">
+        <v>294</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>394</v>
+        <v>373</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>0</v>
@@ -7688,48 +8076,48 @@
         <v>7.99</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>367</v>
-      </c>
-      <c r="K11" s="43" t="s">
-        <v>366</v>
+        <v>346</v>
+      </c>
+      <c r="K11" s="42" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="53" t="s">
+      <c r="A12" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="54"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="54"/>
-      <c r="H12" s="54"/>
-      <c r="I12" s="54"/>
-      <c r="J12" s="54"/>
-      <c r="K12" s="55"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="52"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="53"/>
     </row>
     <row r="13" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="52">
+      <c r="A13" s="50">
         <v>1</v>
       </c>
-      <c r="B13" s="52">
+      <c r="B13" s="50">
         <v>4</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>132</v>
+      <c r="C13" s="63" t="s">
+        <v>131</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="E13" s="33" t="s">
-        <v>316</v>
-      </c>
-      <c r="F13" s="42" t="s">
-        <v>163</v>
+        <v>295</v>
+      </c>
+      <c r="E13" s="32" t="s">
+        <v>296</v>
+      </c>
+      <c r="F13" s="41" t="s">
+        <v>161</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>395</v>
+        <v>374</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>0</v>
@@ -7738,94 +8126,94 @@
         <v>9.99</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="K13" s="43"/>
+        <v>118</v>
+      </c>
+      <c r="K13" s="42"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="53" t="s">
+      <c r="A14" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="54"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="54"/>
-      <c r="I14" s="54"/>
-      <c r="J14" s="54"/>
-      <c r="K14" s="55"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="53"/>
     </row>
     <row r="15" spans="1:11" s="20" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A15" s="40">
+      <c r="A15" s="39">
         <v>1</v>
       </c>
-      <c r="B15" s="40">
+      <c r="B15" s="39">
         <v>3</v>
       </c>
-      <c r="C15" s="42" t="s">
-        <v>131</v>
-      </c>
-      <c r="D15" s="42" t="s">
-        <v>317</v>
-      </c>
-      <c r="E15" s="42" t="s">
-        <v>318</v>
-      </c>
-      <c r="F15" s="42" t="s">
-        <v>319</v>
-      </c>
-      <c r="G15" s="42" t="s">
-        <v>396</v>
+      <c r="C15" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="D15" s="41" t="s">
+        <v>297</v>
+      </c>
+      <c r="E15" s="41" t="s">
+        <v>298</v>
+      </c>
+      <c r="F15" s="41" t="s">
+        <v>299</v>
+      </c>
+      <c r="G15" s="41" t="s">
+        <v>375</v>
       </c>
       <c r="H15" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="I15" s="49">
+        <v>0</v>
+      </c>
+      <c r="I15" s="47">
         <v>13.49</v>
       </c>
-      <c r="J15" s="43" t="s">
-        <v>397</v>
-      </c>
-      <c r="K15" s="43"/>
+      <c r="J15" s="42" t="s">
+        <v>376</v>
+      </c>
+      <c r="K15" s="42"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="53" t="s">
-        <v>76</v>
-      </c>
-      <c r="B16" s="54"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="54"/>
-      <c r="H16" s="54"/>
-      <c r="I16" s="54"/>
-      <c r="J16" s="54"/>
-      <c r="K16" s="55"/>
+      <c r="A16" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" s="52"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="52"/>
+      <c r="K16" s="53"/>
     </row>
     <row r="17" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A17" s="52">
+      <c r="A17" s="50">
         <v>1</v>
       </c>
-      <c r="B17" s="52">
+      <c r="B17" s="50">
         <v>1</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>130</v>
+      <c r="C17" s="62" t="s">
+        <v>129</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="E17" s="33" t="s">
-        <v>329</v>
-      </c>
-      <c r="F17" s="42" t="s">
-        <v>324</v>
+        <v>300</v>
+      </c>
+      <c r="E17" s="32" t="s">
+        <v>309</v>
+      </c>
+      <c r="F17" s="41" t="s">
+        <v>304</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>325</v>
+        <v>305</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>0</v>
@@ -7836,26 +8224,26 @@
       <c r="J17" s="6"/>
     </row>
     <row r="18" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A18" s="52">
+      <c r="A18" s="50">
         <v>1</v>
       </c>
-      <c r="B18" s="52">
+      <c r="B18" s="50">
         <v>1</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>129</v>
+      <c r="C18" s="61" t="s">
+        <v>128</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="E18" s="33" t="s">
-        <v>322</v>
-      </c>
-      <c r="F18" s="42" t="s">
-        <v>323</v>
+        <v>301</v>
+      </c>
+      <c r="E18" s="32" t="s">
+        <v>302</v>
+      </c>
+      <c r="F18" s="41" t="s">
+        <v>303</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>0</v>
@@ -7866,41 +8254,41 @@
       <c r="J18" s="6"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="53" t="s">
+      <c r="A19" s="51" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19" s="52"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="53"/>
+    </row>
+    <row r="20" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A20" s="50">
+        <v>1</v>
+      </c>
+      <c r="B20" s="50">
+        <v>2</v>
+      </c>
+      <c r="C20" s="63" t="s">
+        <v>127</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="E20" s="32" t="s">
+        <v>313</v>
+      </c>
+      <c r="F20" s="41" t="s">
+        <v>307</v>
+      </c>
+      <c r="G20" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="B19" s="54"/>
-      <c r="C19" s="54"/>
-      <c r="D19" s="54"/>
-      <c r="E19" s="54"/>
-      <c r="F19" s="54"/>
-      <c r="G19" s="54"/>
-      <c r="H19" s="54"/>
-      <c r="I19" s="54"/>
-      <c r="J19" s="54"/>
-      <c r="K19" s="55"/>
-    </row>
-    <row r="20" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A20" s="52">
-        <v>1</v>
-      </c>
-      <c r="B20" s="52">
-        <v>2</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="E20" s="33" t="s">
-        <v>333</v>
-      </c>
-      <c r="F20" s="42" t="s">
-        <v>327</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>0</v>
@@ -7911,26 +8299,26 @@
       <c r="J20" s="6"/>
     </row>
     <row r="21" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A21" s="52">
+      <c r="A21" s="50">
         <v>1</v>
       </c>
-      <c r="B21" s="52">
+      <c r="B21" s="50">
         <v>1</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D21" s="42" t="s">
-        <v>331</v>
-      </c>
-      <c r="E21" s="42" t="s">
-        <v>333</v>
-      </c>
-      <c r="F21" s="42" t="s">
-        <v>327</v>
+      <c r="C21" s="63" t="s">
+        <v>126</v>
+      </c>
+      <c r="D21" s="41" t="s">
+        <v>311</v>
+      </c>
+      <c r="E21" s="41" t="s">
+        <v>313</v>
+      </c>
+      <c r="F21" s="41" t="s">
+        <v>307</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>0</v>
@@ -7941,26 +8329,26 @@
       <c r="J21" s="6"/>
     </row>
     <row r="22" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A22" s="52">
+      <c r="A22" s="50">
         <v>1</v>
       </c>
-      <c r="B22" s="52">
+      <c r="B22" s="50">
         <v>1</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>126</v>
+      <c r="C22" s="63" t="s">
+        <v>125</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="E22" s="33" t="s">
-        <v>334</v>
-      </c>
-      <c r="F22" s="42" t="s">
-        <v>328</v>
+        <v>310</v>
+      </c>
+      <c r="E22" s="32" t="s">
+        <v>314</v>
+      </c>
+      <c r="F22" s="41" t="s">
+        <v>308</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>0</v>
@@ -7971,41 +8359,41 @@
       <c r="J22" s="6"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="53" t="s">
-        <v>81</v>
-      </c>
-      <c r="B23" s="54"/>
-      <c r="C23" s="54"/>
-      <c r="D23" s="54"/>
-      <c r="E23" s="54"/>
-      <c r="F23" s="54"/>
-      <c r="G23" s="54"/>
-      <c r="H23" s="54"/>
-      <c r="I23" s="54"/>
-      <c r="J23" s="54"/>
-      <c r="K23" s="55"/>
+      <c r="A23" s="51" t="s">
+        <v>80</v>
+      </c>
+      <c r="B23" s="52"/>
+      <c r="C23" s="52"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="52"/>
+      <c r="I23" s="52"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="53"/>
     </row>
     <row r="24" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A24" s="52">
+      <c r="A24" s="50">
         <v>1</v>
       </c>
-      <c r="B24" s="52">
+      <c r="B24" s="50">
         <v>1</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>124</v>
+      <c r="C24" s="63" t="s">
+        <v>123</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="E24" s="33" t="s">
-        <v>336</v>
-      </c>
-      <c r="F24" s="42" t="s">
-        <v>358</v>
+        <v>315</v>
+      </c>
+      <c r="E24" s="32" t="s">
+        <v>316</v>
+      </c>
+      <c r="F24" s="41" t="s">
+        <v>338</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>357</v>
+        <v>337</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>0</v>
@@ -8014,95 +8402,95 @@
         <v>8.99</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>356</v>
+        <v>336</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="53" t="s">
+      <c r="A25" s="51" t="s">
+        <v>81</v>
+      </c>
+      <c r="B25" s="52"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="52"/>
+      <c r="G25" s="52"/>
+      <c r="H25" s="52"/>
+      <c r="I25" s="52"/>
+      <c r="J25" s="52"/>
+      <c r="K25" s="53"/>
+    </row>
+    <row r="26" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A26" s="50">
+        <v>1</v>
+      </c>
+      <c r="B26" s="50">
+        <v>1</v>
+      </c>
+      <c r="C26" s="69" t="s">
+        <v>372</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="E26" s="32" t="s">
+        <v>319</v>
+      </c>
+      <c r="F26" s="41" t="s">
+        <v>318</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H26" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="B25" s="54"/>
-      <c r="C25" s="54"/>
-      <c r="D25" s="54"/>
-      <c r="E25" s="54"/>
-      <c r="F25" s="54"/>
-      <c r="G25" s="54"/>
-      <c r="H25" s="54"/>
-      <c r="I25" s="54"/>
-      <c r="J25" s="54"/>
-      <c r="K25" s="55"/>
-    </row>
-    <row r="26" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A26" s="52">
-        <v>1</v>
-      </c>
-      <c r="B26" s="52">
-        <v>1</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="E26" s="33" t="s">
-        <v>339</v>
-      </c>
-      <c r="F26" s="42" t="s">
-        <v>338</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="I26" s="18">
         <v>1.32</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>354</v>
-      </c>
-      <c r="K26" s="47" t="s">
-        <v>355</v>
+        <v>334</v>
+      </c>
+      <c r="K26" s="45" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="53" t="s">
-        <v>75</v>
-      </c>
-      <c r="B27" s="54"/>
-      <c r="C27" s="54"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="54"/>
-      <c r="F27" s="54"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="54"/>
-      <c r="I27" s="54"/>
-      <c r="J27" s="54"/>
-      <c r="K27" s="55"/>
+      <c r="A27" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="B27" s="52"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="52"/>
+      <c r="J27" s="52"/>
+      <c r="K27" s="53"/>
     </row>
     <row r="28" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A28" s="52">
+      <c r="A28" s="50">
         <v>1</v>
       </c>
-      <c r="B28" s="52">
+      <c r="B28" s="50">
         <v>2</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>123</v>
+      <c r="C28" s="63" t="s">
+        <v>122</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="E28" s="33" t="s">
-        <v>341</v>
-      </c>
-      <c r="F28" s="42" t="s">
-        <v>349</v>
+        <v>320</v>
+      </c>
+      <c r="E28" s="32" t="s">
+        <v>321</v>
+      </c>
+      <c r="F28" s="41" t="s">
+        <v>329</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>342</v>
+        <v>322</v>
       </c>
       <c r="H28" s="3" t="s">
         <v>0</v>
@@ -8113,118 +8501,118 @@
       <c r="J28" s="6"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="B29" s="54"/>
-      <c r="C29" s="54"/>
-      <c r="D29" s="54"/>
-      <c r="E29" s="54"/>
-      <c r="F29" s="54"/>
-      <c r="G29" s="54"/>
-      <c r="H29" s="54"/>
-      <c r="I29" s="54"/>
-      <c r="J29" s="54"/>
-      <c r="K29" s="55"/>
+      <c r="A29" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="B29" s="52"/>
+      <c r="C29" s="52"/>
+      <c r="D29" s="52"/>
+      <c r="E29" s="52"/>
+      <c r="F29" s="52"/>
+      <c r="G29" s="52"/>
+      <c r="H29" s="52"/>
+      <c r="I29" s="52"/>
+      <c r="J29" s="52"/>
+      <c r="K29" s="53"/>
     </row>
     <row r="30" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A30" s="52">
+      <c r="A30" s="50">
         <v>1</v>
       </c>
-      <c r="B30" s="52">
+      <c r="B30" s="50">
         <v>1</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>72</v>
+      <c r="C30" s="69" t="s">
+        <v>71</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="E30" s="33" t="s">
-        <v>344</v>
-      </c>
-      <c r="F30" s="42" t="s">
-        <v>348</v>
+        <v>323</v>
+      </c>
+      <c r="E30" s="32" t="s">
+        <v>324</v>
+      </c>
+      <c r="F30" s="41" t="s">
+        <v>328</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>345</v>
+        <v>325</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I30" s="18">
         <v>4.55</v>
       </c>
-      <c r="J30" s="56" t="s">
-        <v>120</v>
+      <c r="J30" s="54" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A31" s="52">
+      <c r="A31" s="50">
         <v>1</v>
       </c>
-      <c r="B31" s="52">
+      <c r="B31" s="50">
         <v>1</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>71</v>
+      <c r="C31" s="70" t="s">
+        <v>70</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="E31" s="33" t="s">
-        <v>347</v>
-      </c>
-      <c r="F31" s="42" t="s">
-        <v>348</v>
+        <v>326</v>
+      </c>
+      <c r="E31" s="32" t="s">
+        <v>327</v>
+      </c>
+      <c r="F31" s="41" t="s">
+        <v>328</v>
       </c>
       <c r="G31" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H31" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>74</v>
       </c>
       <c r="I31" s="18">
         <v>5.17</v>
       </c>
-      <c r="J31" s="56"/>
+      <c r="J31" s="54"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="53" t="s">
-        <v>98</v>
-      </c>
-      <c r="B32" s="54"/>
-      <c r="C32" s="54"/>
-      <c r="D32" s="54"/>
-      <c r="E32" s="54"/>
-      <c r="F32" s="54"/>
-      <c r="G32" s="54"/>
-      <c r="H32" s="54"/>
-      <c r="I32" s="54"/>
-      <c r="J32" s="54"/>
-      <c r="K32" s="55"/>
+      <c r="A32" s="51" t="s">
+        <v>97</v>
+      </c>
+      <c r="B32" s="52"/>
+      <c r="C32" s="52"/>
+      <c r="D32" s="52"/>
+      <c r="E32" s="52"/>
+      <c r="F32" s="52"/>
+      <c r="G32" s="52"/>
+      <c r="H32" s="52"/>
+      <c r="I32" s="52"/>
+      <c r="J32" s="52"/>
+      <c r="K32" s="53"/>
     </row>
     <row r="33" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A33" s="52">
+      <c r="A33" s="50">
         <v>1</v>
       </c>
-      <c r="B33" s="52">
+      <c r="B33" s="50">
         <v>4</v>
       </c>
-      <c r="C33" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="D33" s="27" t="s">
-        <v>351</v>
-      </c>
-      <c r="E33" s="33" t="s">
-        <v>350</v>
-      </c>
-      <c r="F33" s="42" t="s">
-        <v>353</v>
-      </c>
-      <c r="G33" s="27" t="s">
-        <v>352</v>
+      <c r="C33" s="63" t="s">
+        <v>124</v>
+      </c>
+      <c r="D33" s="26" t="s">
+        <v>331</v>
+      </c>
+      <c r="E33" s="32" t="s">
+        <v>330</v>
+      </c>
+      <c r="F33" s="41" t="s">
+        <v>333</v>
+      </c>
+      <c r="G33" s="26" t="s">
+        <v>332</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>0</v>
@@ -8232,27 +8620,27 @@
       <c r="I33" s="18">
         <v>8.99</v>
       </c>
-      <c r="J33" s="47" t="s">
-        <v>360</v>
+      <c r="J33" s="45" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="53" t="s">
+      <c r="A34" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="B34" s="54"/>
-      <c r="C34" s="54"/>
-      <c r="D34" s="54"/>
-      <c r="E34" s="54"/>
-      <c r="F34" s="54"/>
-      <c r="G34" s="54"/>
-      <c r="H34" s="54"/>
-      <c r="I34" s="54"/>
-      <c r="J34" s="54"/>
-      <c r="K34" s="55"/>
+      <c r="B34" s="52"/>
+      <c r="C34" s="52"/>
+      <c r="D34" s="52"/>
+      <c r="E34" s="52"/>
+      <c r="F34" s="52"/>
+      <c r="G34" s="52"/>
+      <c r="H34" s="52"/>
+      <c r="I34" s="52"/>
+      <c r="J34" s="52"/>
+      <c r="K34" s="53"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="52" t="s">
+      <c r="A35" s="50" t="s">
         <v>65</v>
       </c>
       <c r="D35" s="2" t="s">
@@ -8382,85 +8770,85 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E43" sqref="E43"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.140625" style="33" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.42578125" style="33" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.85546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="32.140625" style="32" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.42578125" style="32" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="73.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.28515625" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
-        <v>361</v>
-      </c>
-      <c r="B1" s="38" t="s">
-        <v>391</v>
-      </c>
-      <c r="C1" s="38" t="s">
-        <v>362</v>
-      </c>
-      <c r="D1" s="38" t="s">
-        <v>110</v>
-      </c>
-      <c r="E1" s="38" t="s">
-        <v>122</v>
-      </c>
-      <c r="F1" s="38" t="s">
-        <v>160</v>
-      </c>
-      <c r="G1" s="37" t="s">
-        <v>363</v>
-      </c>
-      <c r="H1" s="38" t="s">
-        <v>364</v>
-      </c>
-      <c r="I1" s="38" t="s">
-        <v>365</v>
+      <c r="A1" s="37" t="s">
+        <v>341</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>370</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>396</v>
+      </c>
+      <c r="D1" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="E1" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="F1" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="G1" s="36" t="s">
+        <v>342</v>
+      </c>
+      <c r="H1" s="37" t="s">
+        <v>343</v>
+      </c>
+      <c r="I1" s="37" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="59"/>
-    </row>
-    <row r="3" spans="1:9" ht="100.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="57"/>
+    </row>
+    <row r="3" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>14</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="70" t="s">
         <v>56</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="E3" s="33" t="s">
-        <v>162</v>
-      </c>
-      <c r="F3" s="33" t="s">
-        <v>166</v>
-      </c>
-      <c r="G3" s="35" t="s">
-        <v>161</v>
+        <v>388</v>
+      </c>
+      <c r="E3" s="32" t="s">
+        <v>377</v>
+      </c>
+      <c r="F3" s="32" t="s">
+        <v>164</v>
+      </c>
+      <c r="G3" s="34" t="s">
+        <v>160</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>51</v>
@@ -8476,20 +8864,20 @@
       <c r="B4" s="1">
         <v>2</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>85</v>
+      <c r="C4" s="69" t="s">
+        <v>84</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>239</v>
+        <v>387</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>238</v>
+        <v>378</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>240</v>
-      </c>
-      <c r="G4" s="35" t="s">
-        <v>241</v>
+        <v>235</v>
+      </c>
+      <c r="G4" s="34" t="s">
+        <v>236</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>51</v>
@@ -8505,20 +8893,20 @@
       <c r="B5" s="1">
         <v>4</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="70" t="s">
         <v>58</v>
       </c>
-      <c r="D5" s="35" t="s">
-        <v>256</v>
-      </c>
-      <c r="E5" s="35" t="s">
-        <v>243</v>
-      </c>
-      <c r="F5" s="35" t="s">
-        <v>257</v>
-      </c>
-      <c r="G5" s="35" t="s">
-        <v>258</v>
+      <c r="D5" s="34" t="s">
+        <v>389</v>
+      </c>
+      <c r="E5" s="34" t="s">
+        <v>379</v>
+      </c>
+      <c r="F5" s="34" t="s">
+        <v>240</v>
+      </c>
+      <c r="G5" s="34" t="s">
+        <v>241</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>51</v>
@@ -8534,20 +8922,20 @@
       <c r="B6" s="1">
         <v>27</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="70" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="35" t="s">
-        <v>255</v>
-      </c>
-      <c r="E6" s="35" t="s">
-        <v>244</v>
-      </c>
-      <c r="F6" s="35" t="s">
-        <v>254</v>
-      </c>
-      <c r="G6" s="35" t="s">
-        <v>259</v>
+      <c r="D6" s="34" t="s">
+        <v>391</v>
+      </c>
+      <c r="E6" s="34" t="s">
+        <v>238</v>
+      </c>
+      <c r="F6" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="G6" s="34" t="s">
+        <v>242</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>51</v>
@@ -8556,27 +8944,27 @@
         <v>9.16</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1</v>
       </c>
       <c r="B7" s="1">
-        <v>9</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>242</v>
+        <v>11</v>
+      </c>
+      <c r="C7" s="70" t="s">
+        <v>237</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="E7" s="33" t="s">
-        <v>245</v>
-      </c>
-      <c r="F7" s="33" t="s">
-        <v>253</v>
-      </c>
-      <c r="G7" s="35" t="s">
-        <v>260</v>
+        <v>392</v>
+      </c>
+      <c r="E7" s="32" t="s">
+        <v>385</v>
+      </c>
+      <c r="F7" s="32" t="s">
+        <v>384</v>
+      </c>
+      <c r="G7" s="34" t="s">
+        <v>386</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>51</v>
@@ -8592,20 +8980,20 @@
       <c r="B8" s="1">
         <v>4</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="70" t="s">
         <v>60</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="E8" s="33" t="s">
-        <v>246</v>
-      </c>
-      <c r="F8" s="33" t="s">
-        <v>250</v>
-      </c>
-      <c r="G8" s="35" t="s">
-        <v>261</v>
+        <v>393</v>
+      </c>
+      <c r="E8" s="32" t="s">
+        <v>382</v>
+      </c>
+      <c r="F8" s="32" t="s">
+        <v>383</v>
+      </c>
+      <c r="G8" s="34" t="s">
+        <v>390</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>51</v>
@@ -8614,27 +9002,27 @@
         <v>10.35</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>1</v>
       </c>
       <c r="B9" s="1">
         <v>2</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="70" t="s">
         <v>59</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="E9" s="33" t="s">
-        <v>247</v>
-      </c>
-      <c r="F9" s="33" t="s">
-        <v>249</v>
-      </c>
-      <c r="G9" s="35" t="s">
-        <v>262</v>
+        <v>394</v>
+      </c>
+      <c r="E9" s="32" t="s">
+        <v>381</v>
+      </c>
+      <c r="F9" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="G9" s="34" t="s">
+        <v>243</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>51</v>
@@ -8644,17 +9032,17 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="53" t="s">
+      <c r="A10" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="54"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="55"/>
+      <c r="B10" s="52"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="53"/>
     </row>
     <row r="11" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -8663,20 +9051,20 @@
       <c r="B11" s="1">
         <v>14</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="69" t="s">
         <v>54</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="E11" s="33" t="s">
-        <v>263</v>
-      </c>
-      <c r="F11" s="42" t="s">
-        <v>265</v>
+        <v>245</v>
+      </c>
+      <c r="E11" s="32" t="s">
+        <v>244</v>
+      </c>
+      <c r="F11" s="41" t="s">
+        <v>246</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>275</v>
+        <v>256</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>51</v>
@@ -8692,20 +9080,20 @@
       <c r="B12" s="1">
         <v>38</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="69" t="s">
         <v>53</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="E12" s="33" t="s">
-        <v>266</v>
-      </c>
-      <c r="F12" s="42" t="s">
-        <v>274</v>
+        <v>250</v>
+      </c>
+      <c r="E12" s="32" t="s">
+        <v>247</v>
+      </c>
+      <c r="F12" s="41" t="s">
+        <v>255</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>276</v>
+        <v>257</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>51</v>
@@ -8721,20 +9109,20 @@
       <c r="B13" s="1">
         <v>4</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="69" t="s">
         <v>52</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>270</v>
-      </c>
-      <c r="E13" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="F13" s="42" t="s">
-        <v>273</v>
+        <v>251</v>
+      </c>
+      <c r="E13" s="32" t="s">
+        <v>248</v>
+      </c>
+      <c r="F13" s="41" t="s">
+        <v>254</v>
       </c>
       <c r="G13" s="23" t="s">
-        <v>277</v>
+        <v>258</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>51</v>
@@ -8750,20 +9138,20 @@
       <c r="B14" s="1">
         <v>1</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>86</v>
+      <c r="C14" s="69" t="s">
+        <v>85</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="E14" s="33" t="s">
-        <v>268</v>
-      </c>
-      <c r="F14" s="33" t="s">
-        <v>272</v>
+        <v>252</v>
+      </c>
+      <c r="E14" s="32" t="s">
+        <v>249</v>
+      </c>
+      <c r="F14" s="32" t="s">
+        <v>253</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>51</v>
@@ -8773,36 +9161,36 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="53" t="s">
+      <c r="A15" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="54"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="54"/>
-      <c r="G15" s="54"/>
-      <c r="H15" s="54"/>
-      <c r="I15" s="55"/>
-    </row>
-    <row r="16" spans="1:9" s="14" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+      <c r="B15" s="52"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="53"/>
+    </row>
+    <row r="16" spans="1:9" s="14" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A16" s="13">
         <v>1</v>
       </c>
       <c r="B16" s="12">
         <v>1</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="68" t="s">
         <v>55</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>281</v>
+        <v>395</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>279</v>
-      </c>
-      <c r="F16" s="42" t="s">
-        <v>280</v>
+        <v>260</v>
+      </c>
+      <c r="F16" s="41" t="s">
+        <v>261</v>
       </c>
       <c r="G16" s="12"/>
       <c r="H16" s="3" t="s">
@@ -8813,17 +9201,17 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="53" t="s">
-        <v>87</v>
-      </c>
-      <c r="B17" s="54"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="54"/>
-      <c r="H17" s="54"/>
-      <c r="I17" s="55"/>
+      <c r="A17" s="51" t="s">
+        <v>86</v>
+      </c>
+      <c r="B17" s="52"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="53"/>
     </row>
     <row r="18" spans="1:9" s="14" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
@@ -8832,20 +9220,20 @@
       <c r="B18" s="12">
         <v>28</v>
       </c>
-      <c r="C18" s="12" t="s">
-        <v>296</v>
+      <c r="C18" s="67" t="s">
+        <v>276</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>282</v>
+        <v>262</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>284</v>
-      </c>
-      <c r="F18" s="42" t="s">
-        <v>283</v>
+        <v>264</v>
+      </c>
+      <c r="F18" s="41" t="s">
+        <v>263</v>
       </c>
       <c r="G18" s="25" t="s">
-        <v>293</v>
+        <v>273</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>0</v>
@@ -8855,26 +9243,26 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A19" s="30">
+      <c r="A19" s="29">
         <v>1</v>
       </c>
-      <c r="B19" s="39">
+      <c r="B19" s="38">
         <v>4</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>295</v>
+      <c r="C19" s="66" t="s">
+        <v>275</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>285</v>
+        <v>265</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>286</v>
+        <v>266</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="G19" s="29" t="s">
-        <v>292</v>
+        <v>267</v>
+      </c>
+      <c r="G19" s="28" t="s">
+        <v>272</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>0</v>
@@ -8890,20 +9278,20 @@
       <c r="B20" s="1">
         <v>2</v>
       </c>
-      <c r="C20" s="26" t="s">
-        <v>294</v>
+      <c r="C20" s="65" t="s">
+        <v>274</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>289</v>
+        <v>269</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>288</v>
+        <v>268</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="G20" s="23" t="s">
-        <v>291</v>
+        <v>271</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>0</v>
@@ -9006,7 +9394,7 @@
     <hyperlink ref="H19" r:id="rId15" xr:uid="{59C82901-DC57-4D45-BEC6-A79244FF2640}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId16"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId16"/>
 </worksheet>
 </file>
 
